--- a/eflow-diga/build/2.0.0-draft/all-profiles.xlsx
+++ b/eflow-diga/build/2.0.0-draft/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7398" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7398" uniqueCount="786">
   <si>
     <t>Property</t>
   </si>
@@ -1423,6 +1423,9 @@
   <si>
     <t xml:space="preserve">Extension {https://gematik.de/fhir/epa-medication/StructureDefinition/rx-prescription-process-identifier-extension}
 </t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
   </si>
   <si>
     <t>This extension is used to track medication prescription transactions between the E-Rezept-Fachdienst and the ePA. The RxPrescriptionProcessIdentifier is generated by the ePA Medication Service and consists of the PrescriptionId and the authoredOn date of the operation parameters request. It ensures consistent referencing and management of medication-related resources across different systems.</t>
@@ -3561,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="110">
@@ -3569,7 +3572,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="111">
@@ -3585,7 +3588,7 @@
         <v>8</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="113">
@@ -3593,7 +3596,7 @@
         <v>10</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="114">
@@ -3647,7 +3650,7 @@
         <v>23</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="121">
@@ -3683,7 +3686,7 @@
         <v>31</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="126">
@@ -3691,7 +3694,7 @@
         <v>33</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="127">
@@ -14249,10 +14252,10 @@
         <v>451</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>126</v>
@@ -14325,13 +14328,13 @@
         <v>392</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>448</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E102" t="s" s="2">
         <v>123</v>
@@ -14353,13 +14356,13 @@
         <v>77</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>126</v>
@@ -14432,13 +14435,13 @@
         <v>392</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>448</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E103" t="s" s="2">
         <v>123</v>
@@ -14460,13 +14463,13 @@
         <v>77</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>126</v>
@@ -14539,13 +14542,13 @@
         <v>392</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>448</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E104" t="s" s="2">
         <v>77</v>
@@ -14567,7 +14570,7 @@
         <v>77</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>32</v>
@@ -14644,13 +14647,13 @@
         <v>392</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>448</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E105" t="s" s="2">
         <v>77</v>
@@ -14672,7 +14675,7 @@
         <v>77</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>81</v>
@@ -14749,10 +14752,10 @@
         <v>392</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14856,10 +14859,10 @@
         <v>392</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14885,13 +14888,13 @@
         <v>135</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
@@ -14929,7 +14932,7 @@
         <v>77</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AD107" s="2"/>
       <c r="AE107" t="s" s="2">
@@ -14939,7 +14942,7 @@
         <v>95</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>78</v>
@@ -14959,13 +14962,13 @@
         <v>392</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E108" t="s" s="2">
         <v>77</v>
@@ -14987,16 +14990,16 @@
         <v>77</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -15007,7 +15010,7 @@
         <v>77</v>
       </c>
       <c r="T108" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="U108" t="s" s="2">
         <v>77</v>
@@ -15046,7 +15049,7 @@
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>78</v>
@@ -15066,13 +15069,13 @@
         <v>392</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E109" t="s" s="2">
         <v>77</v>
@@ -15094,16 +15097,16 @@
         <v>77</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -15114,7 +15117,7 @@
         <v>77</v>
       </c>
       <c r="T109" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="U109" t="s" s="2">
         <v>77</v>
@@ -15153,7 +15156,7 @@
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>78</v>
@@ -15173,10 +15176,10 @@
         <v>392</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -15199,13 +15202,13 @@
         <v>77</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>274</v>
@@ -15258,7 +15261,7 @@
         <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>78</v>
@@ -15278,10 +15281,10 @@
         <v>392</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15307,13 +15310,13 @@
         <v>130</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" t="s" s="2">
@@ -15321,7 +15324,7 @@
       </c>
       <c r="R111" s="2"/>
       <c r="S111" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>77</v>
@@ -15342,10 +15345,10 @@
         <v>284</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AB111" t="s" s="2">
         <v>77</v>
@@ -15363,7 +15366,7 @@
         <v>77</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>86</v>
@@ -15383,10 +15386,10 @@
         <v>392</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15409,13 +15412,13 @@
         <v>77</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -15445,10 +15448,10 @@
         <v>293</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AB112" t="s" s="2">
         <v>77</v>
@@ -15466,7 +15469,7 @@
         <v>77</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
@@ -15486,10 +15489,10 @@
         <v>392</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15515,13 +15518,13 @@
         <v>289</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" t="s" s="2">
@@ -15550,10 +15553,10 @@
         <v>284</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB113" t="s" s="2">
         <v>77</v>
@@ -15571,7 +15574,7 @@
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
@@ -15591,10 +15594,10 @@
         <v>392</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15617,16 +15620,16 @@
         <v>149</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
@@ -15676,7 +15679,7 @@
         <v>77</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>86</v>
@@ -15696,10 +15699,10 @@
         <v>392</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15799,10 +15802,10 @@
         <v>392</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -15904,13 +15907,13 @@
         <v>392</v>
       </c>
       <c r="B117" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C117" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="D117" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E117" t="s" s="2">
         <v>77</v>
@@ -15932,13 +15935,13 @@
         <v>77</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -16009,10 +16012,10 @@
         <v>392</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -16112,10 +16115,10 @@
         <v>392</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -16217,10 +16220,10 @@
         <v>392</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -16260,7 +16263,7 @@
       </c>
       <c r="R120" s="2"/>
       <c r="S120" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="T120" t="s" s="2">
         <v>77</v>
@@ -16322,10 +16325,10 @@
         <v>392</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16366,7 +16369,7 @@
         <v>77</v>
       </c>
       <c r="T121" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="U121" t="s" s="2">
         <v>77</v>
@@ -16385,7 +16388,7 @@
       </c>
       <c r="Z121" s="2"/>
       <c r="AA121" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AB121" t="s" s="2">
         <v>77</v>
@@ -16423,10 +16426,10 @@
         <v>392</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16528,10 +16531,10 @@
         <v>392</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16633,10 +16636,10 @@
         <v>392</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16662,7 +16665,7 @@
         <v>135</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>261</v>
@@ -16738,10 +16741,10 @@
         <v>392</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16841,10 +16844,10 @@
         <v>392</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -16946,10 +16949,10 @@
         <v>392</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -16975,16 +16978,16 @@
         <v>130</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P127" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q127" t="s" s="2">
         <v>77</v>
@@ -17012,10 +17015,10 @@
         <v>284</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AB127" t="s" s="2">
         <v>77</v>
@@ -17033,7 +17036,7 @@
         <v>77</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>78</v>
@@ -17053,10 +17056,10 @@
         <v>392</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17082,16 +17085,16 @@
         <v>289</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>77</v>
@@ -17119,10 +17122,10 @@
         <v>255</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AA128" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AB128" t="s" s="2">
         <v>77</v>
@@ -17140,7 +17143,7 @@
         <v>77</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>78</v>
@@ -17160,10 +17163,10 @@
         <v>392</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17189,29 +17192,29 @@
         <v>98</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="P129" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Q129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R129" s="2"/>
       <c r="S129" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="T129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="U129" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="V129" t="s" s="2">
         <v>77</v>
@@ -17247,7 +17250,7 @@
         <v>77</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>78</v>
@@ -17267,10 +17270,10 @@
         <v>392</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17296,13 +17299,13 @@
         <v>87</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
@@ -17316,7 +17319,7 @@
         <v>77</v>
       </c>
       <c r="U130" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="V130" t="s" s="2">
         <v>77</v>
@@ -17352,7 +17355,7 @@
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
@@ -17372,10 +17375,10 @@
         <v>392</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17398,16 +17401,16 @@
         <v>149</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
@@ -17457,7 +17460,7 @@
         <v>77</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
@@ -17469,7 +17472,7 @@
         <v>83</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="132">
@@ -17477,10 +17480,10 @@
         <v>392</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17503,16 +17506,16 @@
         <v>149</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" t="s" s="2">
@@ -17562,7 +17565,7 @@
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>78</v>
@@ -17582,10 +17585,10 @@
         <v>392</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17611,7 +17614,7 @@
         <v>87</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N133" t="s" s="2">
         <v>266</v>
@@ -17687,10 +17690,10 @@
         <v>392</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17713,16 +17716,16 @@
         <v>149</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P134" s="2"/>
       <c r="Q134" t="s" s="2">
@@ -17772,7 +17775,7 @@
         <v>77</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
@@ -17792,10 +17795,10 @@
         <v>392</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17895,10 +17898,10 @@
         <v>392</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18000,10 +18003,10 @@
         <v>392</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18105,10 +18108,10 @@
         <v>392</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18172,7 +18175,7 @@
         <v>256</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AB138" t="s" s="2">
         <v>77</v>
@@ -18210,10 +18213,10 @@
         <v>392</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18239,10 +18242,10 @@
         <v>354</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>262</v>
@@ -18315,10 +18318,10 @@
         <v>392</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18420,10 +18423,10 @@
         <v>392</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18446,13 +18449,13 @@
         <v>77</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>274</v>
@@ -18505,7 +18508,7 @@
         <v>77</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
@@ -18525,10 +18528,10 @@
         <v>392</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18551,13 +18554,13 @@
         <v>77</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>274</v>
@@ -18610,7 +18613,7 @@
         <v>77</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
@@ -18630,10 +18633,10 @@
         <v>392</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18659,10 +18662,10 @@
         <v>143</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -18713,7 +18716,7 @@
         <v>77</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
@@ -18733,10 +18736,10 @@
         <v>392</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -18836,10 +18839,10 @@
         <v>392</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -18941,10 +18944,10 @@
         <v>392</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19048,10 +19051,10 @@
         <v>392</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19077,16 +19080,16 @@
         <v>289</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>312</v>
       </c>
       <c r="P147" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q147" t="s" s="2">
         <v>77</v>
@@ -19114,10 +19117,10 @@
         <v>293</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AA147" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AB147" t="s" s="2">
         <v>77</v>
@@ -19135,7 +19138,7 @@
         <v>77</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>78</v>
@@ -19155,10 +19158,10 @@
         <v>392</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19181,13 +19184,13 @@
         <v>77</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>274</v>
@@ -19240,7 +19243,7 @@
         <v>77</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>86</v>
@@ -19260,10 +19263,10 @@
         <v>392</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19363,10 +19366,10 @@
         <v>392</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19468,10 +19471,10 @@
         <v>392</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19573,10 +19576,10 @@
         <v>392</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19678,10 +19681,10 @@
         <v>392</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19783,10 +19786,10 @@
         <v>392</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -19888,10 +19891,10 @@
         <v>392</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19914,13 +19917,13 @@
         <v>77</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>274</v>
@@ -19973,7 +19976,7 @@
         <v>77</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>78</v>
@@ -19993,10 +19996,10 @@
         <v>392</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20019,16 +20022,16 @@
         <v>77</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
@@ -20078,7 +20081,7 @@
         <v>77</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>78</v>
@@ -20098,10 +20101,10 @@
         <v>392</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20201,10 +20204,10 @@
         <v>392</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20306,10 +20309,10 @@
         <v>392</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20411,10 +20414,10 @@
         <v>392</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20478,7 +20481,7 @@
         <v>256</v>
       </c>
       <c r="AA160" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AB160" t="s" s="2">
         <v>77</v>
@@ -20516,10 +20519,10 @@
         <v>392</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20621,10 +20624,10 @@
         <v>392</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20726,10 +20729,10 @@
         <v>392</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -20755,10 +20758,10 @@
         <v>289</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>312</v>
@@ -20790,10 +20793,10 @@
         <v>293</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AB163" t="s" s="2">
         <v>77</v>
@@ -20811,7 +20814,7 @@
         <v>77</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
@@ -20831,10 +20834,10 @@
         <v>392</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20857,16 +20860,16 @@
         <v>77</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
@@ -20916,7 +20919,7 @@
         <v>77</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
@@ -20928,7 +20931,7 @@
         <v>83</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="165">
@@ -20936,10 +20939,10 @@
         <v>392</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20962,16 +20965,16 @@
         <v>77</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
@@ -21021,7 +21024,7 @@
         <v>77</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>78</v>
@@ -21033,7 +21036,7 @@
         <v>83</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="166">
@@ -21041,10 +21044,10 @@
         <v>392</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21070,10 +21073,10 @@
         <v>161</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
@@ -21124,7 +21127,7 @@
         <v>77</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>78</v>
@@ -21144,10 +21147,10 @@
         <v>392</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -21173,10 +21176,10 @@
         <v>161</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
@@ -21227,7 +21230,7 @@
         <v>77</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>78</v>
@@ -21239,7 +21242,7 @@
         <v>77</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="168">
@@ -21247,10 +21250,10 @@
         <v>392</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21273,13 +21276,13 @@
         <v>77</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>274</v>
@@ -21332,7 +21335,7 @@
         <v>77</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>78</v>
@@ -21352,10 +21355,10 @@
         <v>392</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21378,13 +21381,13 @@
         <v>77</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>274</v>
@@ -21437,7 +21440,7 @@
         <v>77</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>78</v>
@@ -21457,10 +21460,10 @@
         <v>392</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -21486,10 +21489,10 @@
         <v>164</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>391</v>
@@ -21542,7 +21545,7 @@
         <v>77</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>78</v>
@@ -21562,10 +21565,10 @@
         <v>392</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -21588,16 +21591,16 @@
         <v>77</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
@@ -21647,7 +21650,7 @@
         <v>77</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>78</v>
@@ -21659,7 +21662,7 @@
         <v>83</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="172">
@@ -21667,10 +21670,10 @@
         <v>392</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -21696,13 +21699,13 @@
         <v>143</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
@@ -21752,7 +21755,7 @@
         <v>77</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>78</v>
@@ -21772,10 +21775,10 @@
         <v>392</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -21875,10 +21878,10 @@
         <v>392</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -21980,10 +21983,10 @@
         <v>392</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -22087,10 +22090,10 @@
         <v>392</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22113,13 +22116,13 @@
         <v>77</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
@@ -22170,7 +22173,7 @@
         <v>77</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>86</v>
@@ -22190,10 +22193,10 @@
         <v>392</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -22219,10 +22222,10 @@
         <v>289</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>312</v>
@@ -22254,10 +22257,10 @@
         <v>293</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AA177" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AB177" t="s" s="2">
         <v>77</v>
@@ -22275,7 +22278,7 @@
         <v>77</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>78</v>
@@ -22295,10 +22298,10 @@
         <v>392</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -22324,10 +22327,10 @@
         <v>289</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>312</v>
@@ -22359,10 +22362,10 @@
         <v>293</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AA178" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AB178" t="s" s="2">
         <v>77</v>
@@ -22380,7 +22383,7 @@
         <v>77</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>78</v>
@@ -22400,10 +22403,10 @@
         <v>392</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -22426,13 +22429,13 @@
         <v>77</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>274</v>
@@ -22485,7 +22488,7 @@
         <v>77</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>78</v>
@@ -22505,14 +22508,14 @@
         <v>392</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" t="s" s="2">
@@ -22531,16 +22534,16 @@
         <v>77</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P180" s="2"/>
       <c r="Q180" t="s" s="2">
@@ -22590,7 +22593,7 @@
         <v>77</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>78</v>
@@ -22610,10 +22613,10 @@
         <v>392</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -22636,16 +22639,16 @@
         <v>77</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P181" s="2"/>
       <c r="Q181" t="s" s="2">
@@ -22695,7 +22698,7 @@
         <v>77</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>78</v>
@@ -22712,13 +22715,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -22744,13 +22747,13 @@
         <v>80</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P182" s="2"/>
       <c r="Q182" t="s" s="2">
@@ -22800,7 +22803,7 @@
         <v>77</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>78</v>
@@ -22817,13 +22820,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -22922,13 +22925,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -23025,13 +23028,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -23130,13 +23133,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -23235,13 +23238,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -23267,10 +23270,10 @@
         <v>143</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
@@ -23309,17 +23312,17 @@
         <v>77</v>
       </c>
       <c r="AC187" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AD187" s="2"/>
       <c r="AE187" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>78</v>
@@ -23331,18 +23334,18 @@
         <v>83</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -23439,13 +23442,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -23544,13 +23547,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -23651,13 +23654,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23683,13 +23686,13 @@
         <v>87</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P191" s="2"/>
       <c r="Q191" t="s" s="2">
@@ -23739,7 +23742,7 @@
         <v>77</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>86</v>
@@ -23756,13 +23759,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -23785,13 +23788,13 @@
         <v>149</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
@@ -23842,7 +23845,7 @@
         <v>77</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>78</v>
@@ -23851,7 +23854,7 @@
         <v>86</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AK192" t="s" s="2">
         <v>106</v>
@@ -23859,13 +23862,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -23891,13 +23894,13 @@
         <v>212</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
@@ -23947,7 +23950,7 @@
         <v>77</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>78</v>
@@ -23956,7 +23959,7 @@
         <v>86</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>77</v>
@@ -23964,13 +23967,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -23996,13 +23999,13 @@
         <v>77</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" t="s" s="2">
@@ -24052,7 +24055,7 @@
         <v>77</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>78</v>
@@ -24069,16 +24072,16 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D195" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E195" t="s" s="2">
         <v>77</v>
@@ -24103,10 +24106,10 @@
         <v>143</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
@@ -24157,7 +24160,7 @@
         <v>77</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>78</v>
@@ -24169,18 +24172,18 @@
         <v>83</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -24277,13 +24280,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -24382,13 +24385,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -24489,13 +24492,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -24521,13 +24524,13 @@
         <v>87</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
@@ -24538,7 +24541,7 @@
         <v>77</v>
       </c>
       <c r="T199" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="U199" t="s" s="2">
         <v>77</v>
@@ -24577,7 +24580,7 @@
         <v>77</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>86</v>
@@ -24594,13 +24597,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -24623,13 +24626,13 @@
         <v>149</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
@@ -24680,7 +24683,7 @@
         <v>77</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>78</v>
@@ -24689,7 +24692,7 @@
         <v>86</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>106</v>
@@ -24697,13 +24700,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -24729,13 +24732,13 @@
         <v>212</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="P201" s="2"/>
       <c r="Q201" t="s" s="2">
@@ -24785,7 +24788,7 @@
         <v>77</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>78</v>
@@ -24794,7 +24797,7 @@
         <v>86</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AK201" t="s" s="2">
         <v>77</v>
@@ -24802,13 +24805,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -24834,13 +24837,13 @@
         <v>77</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O202" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
@@ -24878,17 +24881,17 @@
         <v>77</v>
       </c>
       <c r="AC202" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AD202" s="2"/>
       <c r="AE202" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>78</v>
@@ -24905,13 +24908,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -25008,13 +25011,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -25113,13 +25116,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -25220,13 +25223,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -25252,13 +25255,13 @@
         <v>87</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
@@ -25308,7 +25311,7 @@
         <v>77</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>86</v>
@@ -25325,13 +25328,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -25354,13 +25357,13 @@
         <v>149</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
@@ -25411,7 +25414,7 @@
         <v>77</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>78</v>
@@ -25420,7 +25423,7 @@
         <v>86</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>106</v>
@@ -25428,13 +25431,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -25460,13 +25463,13 @@
         <v>212</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
@@ -25516,7 +25519,7 @@
         <v>77</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>78</v>
@@ -25525,7 +25528,7 @@
         <v>86</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>77</v>
@@ -25533,13 +25536,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -25565,13 +25568,13 @@
         <v>77</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P209" s="2"/>
       <c r="Q209" t="s" s="2">
@@ -25621,7 +25624,7 @@
         <v>77</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>78</v>
@@ -25638,16 +25641,16 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D210" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E210" t="s" s="2">
         <v>77</v>
@@ -25672,13 +25675,13 @@
         <v>143</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
@@ -25728,7 +25731,7 @@
         <v>77</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>78</v>
@@ -25745,13 +25748,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -25848,13 +25851,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -25953,13 +25956,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -26060,13 +26063,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -26092,13 +26095,13 @@
         <v>87</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O214" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
@@ -26109,7 +26112,7 @@
         <v>77</v>
       </c>
       <c r="T214" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="U214" t="s" s="2">
         <v>77</v>
@@ -26148,7 +26151,7 @@
         <v>77</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>86</v>
@@ -26165,13 +26168,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -26194,13 +26197,13 @@
         <v>149</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" s="2"/>
@@ -26251,7 +26254,7 @@
         <v>77</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>78</v>
@@ -26260,7 +26263,7 @@
         <v>86</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>106</v>
@@ -26268,13 +26271,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -26297,7 +26300,7 @@
         <v>77</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M216" t="s" s="2">
         <v>399</v>
@@ -26306,7 +26309,7 @@
         <v>400</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="P216" s="2"/>
       <c r="Q216" t="s" s="2">
@@ -26356,7 +26359,7 @@
         <v>77</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>78</v>
@@ -26373,13 +26376,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -26405,13 +26408,13 @@
         <v>77</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P217" s="2"/>
       <c r="Q217" t="s" s="2">
@@ -26461,7 +26464,7 @@
         <v>77</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>78</v>
